--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,54 +43,48 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>poor</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -100,84 +94,96 @@
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -187,124 +193,118 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>dear</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>local</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>store</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>san</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -313,16 +313,10 @@
     <t>us</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>time</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>toilet</t>
   </si>
   <si>
     <t>corona</t>
@@ -694,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -755,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -773,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -805,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7692307692307693</v>
+        <v>0.72</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -823,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -847,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -855,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -873,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -897,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -905,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6643835616438356</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -923,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -947,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -955,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -973,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -997,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1005,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5862068965517241</v>
+        <v>0.65</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1023,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8947368421052632</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1047,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1055,7 +1049,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -1073,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1105,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1123,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.8482142857142857</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1147,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1155,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4516129032258064</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1173,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.8414634146341463</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L11">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1205,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4324324324324325</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1223,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1247,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1255,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3947368421052632</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1273,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1297,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1308,10 +1302,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1323,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1347,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1355,37 +1349,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.2925531914893617</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1397,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1405,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2887596899224806</v>
+        <v>0.2771317829457364</v>
       </c>
       <c r="C16">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D16">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1423,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.7890625</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1447,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1455,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.28</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1473,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.7826086956521739</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1497,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1505,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2348993288590604</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1523,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.775</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L18">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M18">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1547,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1555,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2275132275132275</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1573,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.7605633802816901</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1597,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1605,37 +1599,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2207792207792208</v>
+        <v>0.0510752688172043</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>353</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1647,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1655,37 +1649,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1666666666666667</v>
+        <v>0.00634765625</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>210</v>
+        <v>2035</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1697,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1705,87 +1699,63 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06720430107526881</v>
+        <v>0.005324459234608985</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="E22">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="F22">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>347</v>
+        <v>2989</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K22">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="L22">
-        <v>38</v>
-      </c>
-      <c r="M22">
-        <v>38</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.004637297118251077</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>102</v>
-      </c>
-      <c r="E23">
-        <v>0.86</v>
-      </c>
-      <c r="F23">
-        <v>0.14</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>3005</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1797,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>0.7358490566037735</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>0.7222222222222222</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26">
         <v>0.7</v>
       </c>
       <c r="L26">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.6825396825396826</v>
+        <v>0.7</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1901,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.648936170212766</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L28">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1927,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.6382978723404256</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1953,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.62</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1979,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.5926892950391645</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L31">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2005,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.5813953488372093</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2031,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.575</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2057,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>0.5714285714285714</v>
+        <v>0.5691906005221932</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2083,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K35">
-        <v>0.5416666666666666</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2109,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K36">
-        <v>0.5294117647058824</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2135,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.5208333333333334</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2161,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K38">
-        <v>0.5205479452054794</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2187,12 +2157,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K39">
         <v>0.5161290322580645</v>
@@ -2218,16 +2188,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>0.5152542372881356</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L40">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2239,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K41">
-        <v>0.5076923076923077</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2265,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2291,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>0.4857142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2317,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K44">
-        <v>0.4852941176470588</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L44">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2343,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>0.4831460674157304</v>
+        <v>0.453125</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2369,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>0.4444444444444444</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2400,16 +2370,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K47">
-        <v>0.4309623430962343</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L47">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2421,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>136</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K48">
-        <v>0.421875</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="M48">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2447,47 +2417,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K49">
-        <v>0.4102564102564102</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K50">
-        <v>0.4102564102564102</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L50">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2499,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K51">
-        <v>0.3571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2525,47 +2495,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K52">
-        <v>0.3170731707317073</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K53">
-        <v>0.2978723404255319</v>
+        <v>0.3</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2577,47 +2547,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K54">
-        <v>0.2394366197183098</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K55">
-        <v>0.2280701754385965</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2629,15 +2599,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K56">
-        <v>0.2203389830508475</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="L56">
         <v>13</v>
@@ -2655,47 +2625,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K57">
-        <v>0.1684210526315789</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>79</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K58">
-        <v>0.1338582677165354</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2707,47 +2677,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>110</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K59">
-        <v>0.1172839506172839</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N59">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O59">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K60">
-        <v>0.1006289308176101</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2759,21 +2729,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>143</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K61">
-        <v>0.1004784688995215</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L61">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2785,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>376</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K62">
-        <v>0.07906976744186046</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2811,99 +2781,99 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K63">
-        <v>0.07211538461538461</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>386</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K64">
-        <v>0.07042253521126761</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N64">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65">
-        <v>0.06748466257668712</v>
+        <v>0.07838745800671892</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>304</v>
+        <v>823</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K66">
-        <v>0.06168831168831169</v>
+        <v>0.06727828746177369</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2915,73 +2885,73 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K67">
-        <v>0.05701078582434515</v>
+        <v>0.06437291897891231</v>
       </c>
       <c r="L67">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="M67">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>612</v>
+        <v>843</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K68">
-        <v>0.05660377358490566</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L68">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M68">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>850</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K69">
-        <v>0.05257270693512305</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L69">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M69">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2993,47 +2963,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>847</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K70">
-        <v>0.05074971164936563</v>
+        <v>0.05360824742268041</v>
       </c>
       <c r="L70">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M70">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>823</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K71">
-        <v>0.04868913857677903</v>
+        <v>0.04959630911188005</v>
       </c>
       <c r="L71">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M71">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3045,47 +3015,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>254</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K72">
-        <v>0.04781997187060478</v>
+        <v>0.04868913857677903</v>
       </c>
       <c r="L72">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>2031</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K73">
-        <v>0.04320987654320987</v>
+        <v>0.04626334519572953</v>
       </c>
       <c r="L73">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3097,47 +3067,47 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>465</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K74">
-        <v>0.02845134173941158</v>
+        <v>0.04460093896713615</v>
       </c>
       <c r="L74">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M74">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N74">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="O74">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>3005</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="K75">
-        <v>0.02489626556016597</v>
+        <v>0.03299902944031058</v>
       </c>
       <c r="L75">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="N75">
         <v>0.86</v>
@@ -3149,85 +3119,85 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>940</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K76">
-        <v>0.02300884955752212</v>
+        <v>0.02797927461139896</v>
       </c>
       <c r="L76">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N76">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="O76">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>552</v>
+        <v>938</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K77">
-        <v>0.0225705329153605</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="L77">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="M77">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="N77">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="O77">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>3118</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K78">
-        <v>0.01728608470181504</v>
+        <v>0.01294219154443486</v>
       </c>
       <c r="L78">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O78">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>1137</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
